--- a/Code/Results/Cases/Case_3_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53396924361395</v>
+        <v>21.41559893994325</v>
       </c>
       <c r="C2">
-        <v>13.36949216622582</v>
+        <v>7.389307731227945</v>
       </c>
       <c r="D2">
-        <v>10.0913430880106</v>
+        <v>9.424764307976707</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.5952140017891</v>
+        <v>50.31013185936422</v>
       </c>
       <c r="G2">
-        <v>2.069158183703457</v>
+        <v>3.705335002253343</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.101919947820406</v>
+        <v>10.85251586285393</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.70029668083878</v>
+        <v>21.10440418298965</v>
       </c>
       <c r="C3">
-        <v>12.46230684116064</v>
+        <v>6.962254345895776</v>
       </c>
       <c r="D3">
-        <v>9.654207295370723</v>
+        <v>9.300060236560098</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.78451635303445</v>
+        <v>49.11768912723406</v>
       </c>
       <c r="G3">
-        <v>2.085340622268234</v>
+        <v>3.710472821973509</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.809165276330629</v>
+        <v>10.83561971778492</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53218255215793</v>
+        <v>20.92104351675718</v>
       </c>
       <c r="C4">
-        <v>11.88580411698742</v>
+        <v>6.68521250824555</v>
       </c>
       <c r="D4">
-        <v>9.384478336128407</v>
+        <v>9.222972015959229</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.39378520439968</v>
+        <v>48.37893750521798</v>
       </c>
       <c r="G4">
-        <v>2.095386155180508</v>
+        <v>3.71378327579222</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.63271666808689</v>
+        <v>10.82771821263354</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04524301695909</v>
+        <v>20.84837192724169</v>
       </c>
       <c r="C5">
-        <v>11.64572890536925</v>
+        <v>6.568603389908654</v>
       </c>
       <c r="D5">
-        <v>9.274194896842548</v>
+        <v>9.191444315663141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.40670269051468</v>
+        <v>48.07659277075595</v>
       </c>
       <c r="G5">
-        <v>2.099514679591137</v>
+        <v>3.71517167943758</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.561655155829773</v>
+        <v>10.82512078373352</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96372011523576</v>
+        <v>20.83643174067576</v>
       </c>
       <c r="C6">
-        <v>11.60554741102064</v>
+        <v>6.549016929399793</v>
       </c>
       <c r="D6">
-        <v>9.255859760238272</v>
+        <v>9.186202796607809</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.2420271979258</v>
+        <v>48.02632102676768</v>
       </c>
       <c r="G6">
-        <v>2.100202524330344</v>
+        <v>3.715404605928421</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.549906941831412</v>
+        <v>10.8247270907922</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.52566008293452</v>
+        <v>20.92005500347865</v>
       </c>
       <c r="C7">
-        <v>11.88258750838417</v>
+        <v>6.683654881513862</v>
       </c>
       <c r="D7">
-        <v>9.382992526052567</v>
+        <v>9.222547260079818</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.38052489697072</v>
+        <v>48.37486474829282</v>
       </c>
       <c r="G7">
-        <v>2.095441683527307</v>
+        <v>3.713801840645847</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.631754870101289</v>
+        <v>10.82768066175083</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91027344691568</v>
+        <v>21.30676517997379</v>
       </c>
       <c r="C8">
-        <v>13.06057820416681</v>
+        <v>7.245145666123154</v>
       </c>
       <c r="D8">
-        <v>9.94086560127872</v>
+        <v>9.381884355235371</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.29175658400322</v>
+        <v>49.90055593650575</v>
       </c>
       <c r="G8">
-        <v>2.07471989225736</v>
+        <v>3.707074296563738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.000294911061848</v>
+        <v>10.84617739915372</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.27007216584059</v>
+        <v>22.12127160582199</v>
       </c>
       <c r="C9">
-        <v>15.22954751206241</v>
+        <v>8.228125884841335</v>
       </c>
       <c r="D9">
-        <v>11.02741890140948</v>
+        <v>9.689479235354325</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.53517958249948</v>
+        <v>52.82513092391925</v>
       </c>
       <c r="G9">
-        <v>2.034565674896501</v>
+        <v>3.695109361277635</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.749656476152632</v>
+        <v>10.90202017445623</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.31455335604291</v>
+        <v>22.74697585181093</v>
       </c>
       <c r="C10">
-        <v>16.76058194351547</v>
+        <v>8.878071681434282</v>
       </c>
       <c r="D10">
-        <v>11.82833975541751</v>
+        <v>9.911519848063703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.13788800365656</v>
+        <v>54.91384621678791</v>
       </c>
       <c r="G10">
-        <v>2.004709331121519</v>
+        <v>3.687055212831933</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.319002409326044</v>
+        <v>10.9548841003453</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.67553345102271</v>
+        <v>23.03605157945968</v>
       </c>
       <c r="C11">
-        <v>17.45043391432084</v>
+        <v>9.158078609722054</v>
       </c>
       <c r="D11">
-        <v>12.19586162720325</v>
+        <v>10.01146958991017</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.11914101663932</v>
+        <v>55.84740089687759</v>
       </c>
       <c r="G11">
-        <v>1.990864223317151</v>
+        <v>3.683548511352695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.583350016594387</v>
+        <v>10.98147323959016</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.18858971296255</v>
+        <v>23.14603167399187</v>
       </c>
       <c r="C12">
-        <v>17.71145896858653</v>
+        <v>9.261862624655276</v>
       </c>
       <c r="D12">
-        <v>12.3357976127887</v>
+        <v>10.04914896439901</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.24705218645163</v>
+        <v>56.19824861525474</v>
       </c>
       <c r="G12">
-        <v>1.985563783469644</v>
+        <v>3.682243013847683</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.684388552463906</v>
+        <v>10.99190386278359</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.07817599943295</v>
+        <v>23.122324623496</v>
       </c>
       <c r="C13">
-        <v>17.65523794731991</v>
+        <v>9.239610817040681</v>
       </c>
       <c r="D13">
-        <v>12.30562006789354</v>
+        <v>10.04104184337137</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.00414002935877</v>
+        <v>56.12281023457982</v>
       </c>
       <c r="G13">
-        <v>1.986708252998592</v>
+        <v>3.682523182191919</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.662583143395631</v>
+        <v>10.98964140703714</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.71778190053126</v>
+        <v>23.04509012622558</v>
       </c>
       <c r="C14">
-        <v>17.47190784122464</v>
+        <v>9.166662023342784</v>
       </c>
       <c r="D14">
-        <v>12.20735686186158</v>
+        <v>10.01457298791613</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.21194062643688</v>
+        <v>55.87632037529333</v>
       </c>
       <c r="G14">
-        <v>1.990429436483763</v>
+        <v>3.683440659144535</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.591642584152767</v>
+        <v>10.98232414213211</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.49676644390802</v>
+        <v>22.99784495616813</v>
       </c>
       <c r="C15">
-        <v>17.35961105685256</v>
+        <v>9.121686075802433</v>
       </c>
       <c r="D15">
-        <v>12.14727787871277</v>
+        <v>9.998337478865924</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.72663814165271</v>
+        <v>55.72498265140823</v>
       </c>
       <c r="G15">
-        <v>1.992700605702369</v>
+        <v>3.684005553712108</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.548317322100758</v>
+        <v>10.9778891230765</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.22521840650438</v>
+        <v>22.72816267036053</v>
       </c>
       <c r="C16">
-        <v>16.71542507284955</v>
+        <v>8.859457716425959</v>
       </c>
       <c r="D16">
-        <v>11.80440948496198</v>
+        <v>9.904965123059119</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.9427793228601</v>
+        <v>54.85247749707298</v>
       </c>
       <c r="G16">
-        <v>2.005607254093237</v>
+        <v>3.687287530749646</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.30184718833396</v>
+        <v>10.95319728120935</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.43974972305242</v>
+        <v>22.56376878232199</v>
       </c>
       <c r="C17">
-        <v>16.31901993091793</v>
+        <v>8.694580436308019</v>
       </c>
       <c r="D17">
-        <v>11.59507599068501</v>
+        <v>9.847400849677692</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.23061378258087</v>
+        <v>54.31276291581884</v>
       </c>
       <c r="G17">
-        <v>2.013444898859481</v>
+        <v>3.689341039897002</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.152115951297969</v>
+        <v>10.93869811920634</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.98563157455757</v>
+        <v>22.46963902709971</v>
       </c>
       <c r="C18">
-        <v>16.09034135818791</v>
+        <v>8.598273385326054</v>
       </c>
       <c r="D18">
-        <v>11.47494913783682</v>
+        <v>9.814192863608769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.24355312414494</v>
+        <v>54.00078517048059</v>
       </c>
       <c r="G18">
-        <v>2.017929524197126</v>
+        <v>3.690536968927503</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.066484845776412</v>
+        <v>10.9305980033192</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.83144326131997</v>
+        <v>22.43784519505881</v>
       </c>
       <c r="C19">
-        <v>16.0127784707451</v>
+        <v>8.565412258554923</v>
       </c>
       <c r="D19">
-        <v>11.43431576528845</v>
+        <v>9.802932821334535</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90890499149346</v>
+        <v>53.89489784758358</v>
       </c>
       <c r="G19">
-        <v>2.019444458416126</v>
+        <v>3.690944438380001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.037571723900784</v>
+        <v>10.92789666281293</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.52359875697796</v>
+        <v>22.58122569273089</v>
       </c>
       <c r="C20">
-        <v>16.36128312499177</v>
+        <v>8.712284443310413</v>
       </c>
       <c r="D20">
-        <v>11.61732937066517</v>
+        <v>9.853538990166308</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.41309761033735</v>
+        <v>54.37037878372639</v>
       </c>
       <c r="G20">
-        <v>2.012613117232479</v>
+        <v>3.689120909444642</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.168003332977372</v>
+        <v>10.94021682476913</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.82369091939714</v>
+        <v>23.06776282105478</v>
       </c>
       <c r="C21">
-        <v>17.52575512179889</v>
+        <v>9.188149843924625</v>
       </c>
       <c r="D21">
-        <v>12.23619552916657</v>
+        <v>10.02235226642723</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.44463592505534</v>
+        <v>55.9487949928249</v>
       </c>
       <c r="G21">
-        <v>1.989338177688669</v>
+        <v>3.683170567098816</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.612452507922734</v>
+        <v>10.98446360883237</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.31416328187641</v>
+        <v>23.38867937025589</v>
       </c>
       <c r="C22">
-        <v>18.2860849267052</v>
+        <v>9.48605191488636</v>
       </c>
       <c r="D22">
-        <v>12.6453237926077</v>
+        <v>10.13168626170452</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.72858182940845</v>
+        <v>56.96470799662045</v>
       </c>
       <c r="G22">
-        <v>1.973778227701101</v>
+        <v>3.679412234673094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.908506381661521</v>
+        <v>11.01548887469154</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.51939031339775</v>
+        <v>23.21717210116512</v>
       </c>
       <c r="C23">
-        <v>17.88005264556657</v>
+        <v>9.328253485339287</v>
       </c>
       <c r="D23">
-        <v>12.42641110281744</v>
+        <v>10.07342932312227</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.97538437298252</v>
+        <v>56.42401740034112</v>
       </c>
       <c r="G23">
-        <v>1.982122521264513</v>
+        <v>3.681406242989596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.749913952914643</v>
+        <v>10.99873855608915</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.48569860727052</v>
+        <v>22.57333222267904</v>
       </c>
       <c r="C24">
-        <v>16.34217841824141</v>
+        <v>8.704285186765611</v>
       </c>
       <c r="D24">
-        <v>11.60726794870517</v>
+        <v>9.850764289115915</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.33060528150122</v>
+        <v>54.3443358880933</v>
       </c>
       <c r="G24">
-        <v>2.012989230750506</v>
+        <v>3.689220382629695</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.160819253493747</v>
+        <v>10.93952948374048</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.12144895157655</v>
+        <v>21.89562463061479</v>
       </c>
       <c r="C25">
-        <v>14.65574299399334</v>
+        <v>7.97488774507755</v>
       </c>
       <c r="D25">
-        <v>10.73369604881601</v>
+        <v>9.606889591184755</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.07245366389553</v>
+        <v>52.04318700400413</v>
       </c>
       <c r="G25">
-        <v>2.045436996209726</v>
+        <v>3.698215991006295</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.543925980119733</v>
+        <v>10.88482584843357</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_233/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.41559893994325</v>
+        <v>24.53396924361413</v>
       </c>
       <c r="C2">
-        <v>7.389307731227945</v>
+        <v>13.36949216622568</v>
       </c>
       <c r="D2">
-        <v>9.424764307976707</v>
+        <v>10.09134308801052</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50.31013185936422</v>
+        <v>63.59521400178938</v>
       </c>
       <c r="G2">
-        <v>3.705335002253343</v>
+        <v>2.069158183703329</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.85251586285393</v>
+        <v>8.101919947820438</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.10440418298965</v>
+        <v>22.70029668083883</v>
       </c>
       <c r="C3">
-        <v>6.962254345895776</v>
+        <v>12.46230684116068</v>
       </c>
       <c r="D3">
-        <v>9.300060236560098</v>
+        <v>9.65420729537086</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>49.11768912723406</v>
+        <v>59.78451635303465</v>
       </c>
       <c r="G3">
-        <v>3.710472821973509</v>
+        <v>2.085340622267978</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.83561971778492</v>
+        <v>7.80916527633061</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.92104351675718</v>
+        <v>21.53218255215792</v>
       </c>
       <c r="C4">
-        <v>6.68521250824555</v>
+        <v>11.88580411698751</v>
       </c>
       <c r="D4">
-        <v>9.222972015959229</v>
+        <v>9.38447833612846</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>48.37893750521798</v>
+        <v>57.39378520440002</v>
       </c>
       <c r="G4">
-        <v>3.71378327579222</v>
+        <v>2.095386155181042</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.82771821263354</v>
+        <v>7.632716668086839</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.84837192724169</v>
+        <v>21.04524301695914</v>
       </c>
       <c r="C5">
-        <v>6.568603389908654</v>
+        <v>11.64572890536952</v>
       </c>
       <c r="D5">
-        <v>9.191444315663141</v>
+        <v>9.274194896842449</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>48.07659277075595</v>
+        <v>56.40670269051468</v>
       </c>
       <c r="G5">
-        <v>3.71517167943758</v>
+        <v>2.09951467959153</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.82512078373352</v>
+        <v>7.561655155829769</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.83643174067576</v>
+        <v>20.96372011523578</v>
       </c>
       <c r="C6">
-        <v>6.549016929399793</v>
+        <v>11.60554741102061</v>
       </c>
       <c r="D6">
-        <v>9.186202796607809</v>
+        <v>9.255859760238328</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>48.02632102676768</v>
+        <v>56.24202719792609</v>
       </c>
       <c r="G6">
-        <v>3.715404605928421</v>
+        <v>2.100202524330342</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.8247270907922</v>
+        <v>7.549906941831411</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.92005500347865</v>
+        <v>21.52566008293457</v>
       </c>
       <c r="C7">
-        <v>6.683654881513862</v>
+        <v>11.88258750838438</v>
       </c>
       <c r="D7">
-        <v>9.222547260079818</v>
+        <v>9.382992526052638</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>48.37486474829282</v>
+        <v>57.38052489697044</v>
       </c>
       <c r="G7">
-        <v>3.713801840645847</v>
+        <v>2.095441683527043</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.82768066175083</v>
+        <v>7.631754870101212</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.30676517997379</v>
+        <v>23.91027344691569</v>
       </c>
       <c r="C8">
-        <v>7.245145666123154</v>
+        <v>13.0605782041667</v>
       </c>
       <c r="D8">
-        <v>9.381884355235371</v>
+        <v>9.94086560127872</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>49.90055593650575</v>
+        <v>62.29175658400317</v>
       </c>
       <c r="G8">
-        <v>3.707074296563738</v>
+        <v>2.07471989225762</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.84617739915372</v>
+        <v>8.000294911061856</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.12127160582199</v>
+        <v>28.27007216584064</v>
       </c>
       <c r="C9">
-        <v>8.228125884841335</v>
+        <v>15.22954751206249</v>
       </c>
       <c r="D9">
-        <v>9.689479235354325</v>
+        <v>11.02741890140945</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>52.82513092391925</v>
+        <v>71.53517958249938</v>
       </c>
       <c r="G9">
-        <v>3.695109361277635</v>
+        <v>2.034565674896512</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.90202017445623</v>
+        <v>8.749656476152616</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.74697585181093</v>
+        <v>31.31455335604305</v>
       </c>
       <c r="C10">
-        <v>8.878071681434282</v>
+        <v>16.76058194351564</v>
       </c>
       <c r="D10">
-        <v>9.911519848063703</v>
+        <v>11.8283397554176</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>54.91384621678791</v>
+        <v>78.13788800365752</v>
       </c>
       <c r="G10">
-        <v>3.687055212831933</v>
+        <v>2.00470933112126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.9548841003453</v>
+        <v>9.319002409326123</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.03605157945968</v>
+        <v>32.67553345102263</v>
       </c>
       <c r="C11">
-        <v>9.158078609722054</v>
+        <v>17.45043391432088</v>
       </c>
       <c r="D11">
-        <v>10.01146958991017</v>
+        <v>12.19586162720323</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.84740089687759</v>
+        <v>81.11914101663922</v>
       </c>
       <c r="G11">
-        <v>3.683548511352695</v>
+        <v>1.990864223317035</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.98147323959016</v>
+        <v>9.583350016594382</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.14603167399187</v>
+        <v>33.1885897129626</v>
       </c>
       <c r="C12">
-        <v>9.261862624655276</v>
+        <v>17.71145896858653</v>
       </c>
       <c r="D12">
-        <v>10.04914896439901</v>
+        <v>12.33579761278872</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.19824861525474</v>
+        <v>82.24705218645155</v>
       </c>
       <c r="G12">
-        <v>3.682243013847683</v>
+        <v>1.985563783469901</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.99190386278359</v>
+        <v>9.684388552463881</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.122324623496</v>
+        <v>33.07817599943299</v>
       </c>
       <c r="C13">
-        <v>9.239610817040681</v>
+        <v>17.65523794731993</v>
       </c>
       <c r="D13">
-        <v>10.04104184337137</v>
+        <v>12.30562006789338</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.12281023457982</v>
+        <v>82.00414002935837</v>
       </c>
       <c r="G13">
-        <v>3.682523182191919</v>
+        <v>1.986708252998483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.98964140703714</v>
+        <v>9.662583143395631</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.04509012622558</v>
+        <v>32.71778190053126</v>
       </c>
       <c r="C14">
-        <v>9.166662023342784</v>
+        <v>17.47190784122495</v>
       </c>
       <c r="D14">
-        <v>10.01457298791613</v>
+        <v>12.20735686186148</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.87632037529333</v>
+        <v>81.21194062643673</v>
       </c>
       <c r="G14">
-        <v>3.683440659144535</v>
+        <v>1.99042943648386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.98232414213211</v>
+        <v>9.59164258415279</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99784495616813</v>
+        <v>32.49676644390797</v>
       </c>
       <c r="C15">
-        <v>9.121686075802433</v>
+        <v>17.3596110568525</v>
       </c>
       <c r="D15">
-        <v>9.998337478865924</v>
+        <v>12.14727787871279</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.72498265140823</v>
+        <v>80.72663814165246</v>
       </c>
       <c r="G15">
-        <v>3.684005553712108</v>
+        <v>1.992700605702231</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.9778891230765</v>
+        <v>9.548317322100759</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.72816267036053</v>
+        <v>31.22521840650428</v>
       </c>
       <c r="C16">
-        <v>8.859457716425959</v>
+        <v>16.71542507284948</v>
       </c>
       <c r="D16">
-        <v>9.904965123059119</v>
+        <v>11.80440948496189</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>54.85247749707298</v>
+        <v>77.94277932285964</v>
       </c>
       <c r="G16">
-        <v>3.687287530749646</v>
+        <v>2.005607254093116</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.95319728120935</v>
+        <v>9.301847188333969</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.56376878232199</v>
+        <v>30.43974972305272</v>
       </c>
       <c r="C17">
-        <v>8.694580436308019</v>
+        <v>16.31901993091816</v>
       </c>
       <c r="D17">
-        <v>9.847400849677692</v>
+        <v>11.59507599068505</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>54.31276291581884</v>
+        <v>76.23061378258107</v>
       </c>
       <c r="G17">
-        <v>3.689341039897002</v>
+        <v>2.013444898859338</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.93869811920634</v>
+        <v>9.152115951298017</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.46963902709971</v>
+        <v>29.98563157455758</v>
       </c>
       <c r="C18">
-        <v>8.598273385326054</v>
+        <v>16.09034135818815</v>
       </c>
       <c r="D18">
-        <v>9.814192863608769</v>
+        <v>11.47494913783687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>54.00078517048059</v>
+        <v>75.2435531241449</v>
       </c>
       <c r="G18">
-        <v>3.690536968927503</v>
+        <v>2.017929524196987</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.9305980033192</v>
+        <v>9.066484845776381</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.43784519505881</v>
+        <v>29.83144326132003</v>
       </c>
       <c r="C19">
-        <v>8.565412258554923</v>
+        <v>16.01277847074524</v>
       </c>
       <c r="D19">
-        <v>9.802932821334535</v>
+        <v>11.43431576528866</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>53.89489784758358</v>
+        <v>74.90890499149397</v>
       </c>
       <c r="G19">
-        <v>3.690944438380001</v>
+        <v>2.019444458416251</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.92789666281293</v>
+        <v>9.037571723900788</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.58122569273089</v>
+        <v>30.52359875697803</v>
       </c>
       <c r="C20">
-        <v>8.712284443310413</v>
+        <v>16.36128312499214</v>
       </c>
       <c r="D20">
-        <v>9.853538990166308</v>
+        <v>11.61732937066515</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>54.37037878372639</v>
+        <v>76.4130976103373</v>
       </c>
       <c r="G20">
-        <v>3.689120909444642</v>
+        <v>2.01261311723235</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.94021682476913</v>
+        <v>9.168003332977362</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.06776282105478</v>
+        <v>32.82369091939712</v>
       </c>
       <c r="C21">
-        <v>9.188149843924625</v>
+        <v>17.52575512179882</v>
       </c>
       <c r="D21">
-        <v>10.02235226642723</v>
+        <v>12.23619552916671</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.9487949928249</v>
+        <v>81.44463592505583</v>
       </c>
       <c r="G21">
-        <v>3.683170567098816</v>
+        <v>1.989338177688798</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.98446360883237</v>
+        <v>9.612452507922754</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.38867937025589</v>
+        <v>34.31416328187654</v>
       </c>
       <c r="C22">
-        <v>9.48605191488636</v>
+        <v>18.28608492670543</v>
       </c>
       <c r="D22">
-        <v>10.13168626170452</v>
+        <v>12.64532379260776</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>56.96470799662045</v>
+        <v>84.7285818294088</v>
       </c>
       <c r="G22">
-        <v>3.679412234673094</v>
+        <v>1.97377822770121</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.01548887469154</v>
+        <v>9.90850638166156</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.21717210116512</v>
+        <v>33.51939031339744</v>
       </c>
       <c r="C23">
-        <v>9.328253485339287</v>
+        <v>17.88005264556632</v>
       </c>
       <c r="D23">
-        <v>10.07342932312227</v>
+        <v>12.42641110281733</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>56.42401740034112</v>
+        <v>82.97538437298182</v>
       </c>
       <c r="G23">
-        <v>3.681406242989596</v>
+        <v>1.982122521264251</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.99873855608915</v>
+        <v>9.74991395291463</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.57333222267904</v>
+        <v>30.4856986072706</v>
       </c>
       <c r="C24">
-        <v>8.704285186765611</v>
+        <v>16.34217841824147</v>
       </c>
       <c r="D24">
-        <v>9.850764289115915</v>
+        <v>11.60726794870524</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>54.3443358880933</v>
+        <v>76.33060528150149</v>
       </c>
       <c r="G24">
-        <v>3.689220382629695</v>
+        <v>2.012989230750497</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.93952948374048</v>
+        <v>9.160819253493766</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.89562463061479</v>
+        <v>27.12144895157656</v>
       </c>
       <c r="C25">
-        <v>7.97488774507755</v>
+        <v>14.65574299399315</v>
       </c>
       <c r="D25">
-        <v>9.606889591184755</v>
+        <v>10.73369604881604</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>52.04318700400413</v>
+        <v>69.07245366389498</v>
       </c>
       <c r="G25">
-        <v>3.698215991006295</v>
+        <v>2.045436996209461</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.88482584843357</v>
+        <v>8.543925980119777</v>
       </c>
       <c r="M25">
         <v>0</v>
